--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditpath\PycharmProjects\policyBazaar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8924EA8-F31F-4205-BBE0-771DB1F371E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F65817-F061-46FB-8F14-701FEEFCDD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="85">
   <si>
     <t>Type_of_investment</t>
   </si>
@@ -125,78 +125,72 @@
     <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 1 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
   </si>
   <si>
+    <t xml:space="preserve">Name:  Life Cover:  Claim Settled:  Price: </t>
+  </si>
+  <si>
+    <t>Claim Settlement</t>
+  </si>
+  <si>
+    <t>High to Low</t>
+  </si>
+  <si>
+    <t>Name: eShield Next Life Cover: ₹ 1 Cr Claim Settled: 95.03% Price: eShield Next</t>
+  </si>
+  <si>
+    <t>Name: iTerm Prime Life Cover: ₹ 1 Cr Claim Settled: 99.37% Price: iTerm Prime</t>
+  </si>
+  <si>
+    <t>Name: Zindagi Protect Life Cover: ₹ 1 Cr Claim Settled: 99.2% Price: Zindagi Protect</t>
+  </si>
+  <si>
+    <t>Name: Kotak e-Term Life Cover: ₹ 1 Cr Claim Settled: 98.82% Price: Kotak e-Term</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
+  </si>
+  <si>
     <t>Name: Mera Term Plan Plus Life Cover: ₹ 1 Cr Claim Settled: 99.06% Price: Mera Term Plan Plus</t>
   </si>
   <si>
-    <t>Name: Kotak e-Term Life Cover: ₹ 1 Cr Claim Settled: 98.82% Price: Kotak e-Term</t>
-  </si>
-  <si>
-    <t>Name: DigiShield Plan Life Cover: ₹ 1 Cr Claim Settled: 98.12% Price: DigiShield Plan</t>
-  </si>
-  <si>
     <t>Name: Sampoorna Raksha Supreme Life Cover: ₹ 1 Cr Claim Settled: 99.01% Price: Sampoorna Raksha Supreme</t>
   </si>
   <si>
-    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
-  </si>
-  <si>
-    <t>Name: Zindagi Protect Life Cover: ₹ 1 Cr Claim Settled: 99.2% Price: Zindagi Protect</t>
-  </si>
-  <si>
-    <t>Name: eShield Next Life Cover: ₹ 1 Cr Claim Settled: 95.03% Price: eShield Next</t>
-  </si>
-  <si>
-    <t>Name: iTerm Prime Life Cover: ₹ 1 Cr Claim Settled: 99.37% Price: iTerm Prime</t>
-  </si>
-  <si>
-    <t>Claim Settlement</t>
-  </si>
-  <si>
-    <t>High to Low</t>
-  </si>
-  <si>
-    <t>Yearly</t>
+    <t>Name: Zindagi Protect Life Cover: ₹ 1.25 Cr Claim Settled: 99.2% Price: Zindagi Protect</t>
+  </si>
+  <si>
+    <t>Name: Sampoorna Raksha Supreme Life Cover: ₹ 1.25 Cr Claim Settled: 99.01% Price: Sampoorna Raksha Supreme</t>
   </si>
   <si>
     <t>Name: Click 2 Protect Super Life Cover: ₹ 1.25 Cr Claim Settled: 99.39% Price: Click 2 Protect Super</t>
   </si>
   <si>
+    <t>Name: iTerm Prime Life Cover: ₹ 1.25 Cr Claim Settled: 99.37% Price: iTerm Prime</t>
+  </si>
+  <si>
+    <t>Name: Kotak e-Term Life Cover: ₹ 1.25 Cr Claim Settled: 98.82% Price: Kotak e-Term</t>
+  </si>
+  <si>
     <t>Name: eShield Next Life Cover: ₹ 1.25 Cr Claim Settled: 95.03% Price: eShield Next</t>
   </si>
   <si>
     <t>Name: iProtect Smart Life Cover: ₹ 1.25 Cr Claim Settled: 97.8% Price: iProtect Smart</t>
   </si>
   <si>
-    <t>Name: iTerm Prime Life Cover: ₹ 1.25 Cr Claim Settled: 99.37% Price: iTerm Prime</t>
-  </si>
-  <si>
-    <t>Name: Zindagi Protect Life Cover: ₹ 1.25 Cr Claim Settled: 99.2% Price: Zindagi Protect</t>
-  </si>
-  <si>
-    <t>Name: Kotak e-Term Life Cover: ₹ 1.25 Cr Claim Settled: 98.82% Price: Kotak e-Term</t>
+    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.25 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
   </si>
   <si>
     <t>Name: Smart Secure Plus Life Cover: ₹ 1.25 Cr Claim Settled: 99.51% Price: Smart Secure Plus</t>
   </si>
   <si>
+    <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 1.25 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
+  </si>
+  <si>
     <t>Name: Mera Term Plan Plus Life Cover: ₹ 1.25 Cr Claim Settled: 99.06% Price: Mera Term Plan Plus</t>
   </si>
   <si>
-    <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 1.25 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
-  </si>
-  <si>
-    <t>Name: Sampoorna Raksha Supreme Life Cover: ₹ 1.25 Cr Claim Settled: 99.01% Price: Sampoorna Raksha Supreme</t>
-  </si>
-  <si>
-    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.25 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
-  </si>
-  <si>
-    <t>Name: DigiShield Plan Life Cover: ₹ 1.25 Cr Claim Settled: 98.12% Price: DigiShield Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name:  Life Cover:  Claim Settled:  Price: </t>
-  </si>
-  <si>
     <t>Name: Zindagi Protect Life Cover: ₹ 1.5 Cr Claim Settled: 99.2% Price: Zindagi Protect</t>
   </si>
   <si>
@@ -212,18 +206,18 @@
     <t>Name: Kotak e-Term Life Cover: ₹ 1.5 Cr Claim Settled: 98.82% Price: Kotak e-Term</t>
   </si>
   <si>
+    <t>Name: iProtect Smart Life Cover: ₹ 1.5 Cr Claim Settled: 97.8% Price: iProtect Smart</t>
+  </si>
+  <si>
+    <t>Name: Smart Secure Plus Life Cover: ₹ 1.5 Cr Claim Settled: 99.51% Price: Smart Secure Plus</t>
+  </si>
+  <si>
+    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.5 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
+  </si>
+  <si>
     <t>Name: eShield Next Life Cover: ₹ 1.5 Cr Claim Settled: 95.03% Price: eShield Next</t>
   </si>
   <si>
-    <t>Name: iProtect Smart Life Cover: ₹ 1.5 Cr Claim Settled: 97.8% Price: iProtect Smart</t>
-  </si>
-  <si>
-    <t>Name: Smart Secure Plus Life Cover: ₹ 1.5 Cr Claim Settled: 99.51% Price: Smart Secure Plus</t>
-  </si>
-  <si>
-    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.5 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
-  </si>
-  <si>
     <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 1.5 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
   </si>
   <si>
@@ -251,15 +245,12 @@
     <t>Name: iProtect Smart Life Cover: ₹ 1.75 Cr Claim Settled: 97.8% Price: iProtect Smart</t>
   </si>
   <si>
-    <t>Name: DigiShield Plan Life Cover: ₹ 1.75 Cr Claim Settled: 98.12% Price: DigiShield Plan</t>
+    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.75 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
   </si>
   <si>
     <t>Name: Smart Secure Plus Life Cover: ₹ 1.75 Cr Claim Settled: 99.51% Price: Smart Secure Plus</t>
   </si>
   <si>
-    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 1.75 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
-  </si>
-  <si>
     <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 1.75 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
   </si>
   <si>
@@ -284,19 +275,10 @@
     <t>Name: iProtect Smart Life Cover: ₹ 2 Cr Claim Settled: 97.8% Price: iProtect Smart</t>
   </si>
   <si>
+    <t>Name: Smart Total Elite Protection Life Cover: ₹ 2 Cr Claim Settled: 99.51% Price: Smart Total Elite Protection</t>
+  </si>
+  <si>
     <t>Name: Bajaj Allianz Life eTouch Life Cover: ₹ 2 Cr Claim Settled: 99.04% Price: Bajaj Allianz Life eTouch</t>
-  </si>
-  <si>
-    <t>Name: Smart Total Elite Protection Life Cover: ₹ 2 Cr Claim Settled: 99.51% Price: Smart Total Elite Protection</t>
-  </si>
-  <si>
-    <t>Name: Mera Term Plan Plus Life Cover: ₹ 2 Cr Claim Settled: 99.06% Price: Mera Term Plan Plus</t>
-  </si>
-  <si>
-    <t>Name: Young Term Plan - Life Secure Life Cover: ₹ 2 Cr Claim Settled: 99.01% Price: Young Term Plan - Life Secure</t>
-  </si>
-  <si>
-    <t>Name: DigiShield Plan Life Cover: ₹ 2 Cr Claim Settled: 98.12% Price: DigiShield Plan</t>
   </si>
 </sst>
 </file>
@@ -789,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,25 +851,25 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -904,25 +886,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -936,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -945,19 +909,19 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -971,28 +935,28 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1003,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -1012,22 +976,22 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1038,31 +1002,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1073,10 +1019,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>28</v>
@@ -1085,19 +1031,19 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1108,31 +1054,31 @@
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1152,22 +1098,22 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1184,43 +1130,43 @@
         <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1234,46 +1180,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" t="s">
         <v>33</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1287,46 +1233,46 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P15" t="s">
         <v>33</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1337,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -1349,37 +1295,37 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -1390,7 +1336,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1402,37 +1348,37 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -1443,49 +1389,49 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P18" t="s">
         <v>33</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -1496,49 +1442,49 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" t="s">
         <v>33</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -1555,43 +1501,43 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -1610,42 +1556,6 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -1658,46 +1568,16 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -1711,46 +1591,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -1761,49 +1611,19 @@
         <v>100</v>
       </c>
       <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -1814,13 +1634,19 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
+      <c r="G25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -1831,13 +1657,19 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -1848,13 +1680,19 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
         <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -1873,6 +1711,12 @@
       <c r="E28" t="s">
         <v>28</v>
       </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1888,7 +1732,25 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -1902,28 +1764,28 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -1937,10 +1799,28 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -1951,7 +1831,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -1960,22 +1840,22 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -1986,31 +1866,31 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
       </c>
       <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
         <v>48</v>
       </c>
-      <c r="I33" t="s">
-        <v>49</v>
-      </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -2021,13 +1901,31 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -2038,31 +1936,31 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
       </c>
       <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
         <v>48</v>
       </c>
-      <c r="I35" t="s">
-        <v>49</v>
-      </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -2082,22 +1980,22 @@
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2114,43 +2012,7 @@
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N37" t="s">
-        <v>49</v>
-      </c>
-      <c r="O37" t="s">
-        <v>55</v>
-      </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -2164,46 +2026,46 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q38" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -2217,10 +2079,46 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -2231,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -2240,40 +2138,40 @@
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -2284,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -2301,49 +2199,49 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
         <v>50</v>
       </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q42" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -2354,49 +2252,49 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q43" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -2413,43 +2311,43 @@
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P44" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q44" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -2469,40 +2367,10 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -2516,46 +2384,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" t="s">
-        <v>56</v>
-      </c>
-      <c r="O46" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -2569,16 +2407,13 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -2589,19 +2424,13 @@
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -2612,7 +2441,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -2621,10 +2450,10 @@
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -2635,19 +2464,19 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -2658,19 +2487,19 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -2690,10 +2519,10 @@
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -2710,25 +2539,25 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
         <v>59</v>
       </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" t="s">
-        <v>61</v>
-      </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -2742,28 +2571,10 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -2777,28 +2588,28 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s">
         <v>59</v>
       </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" t="s">
-        <v>61</v>
-      </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -2809,31 +2620,13 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -2844,31 +2637,31 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
         <v>59</v>
       </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -2879,31 +2672,13 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>56</v>
-      </c>
-      <c r="K58" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -2914,31 +2689,31 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
         <v>59</v>
       </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" t="s">
-        <v>61</v>
-      </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -2958,22 +2733,22 @@
         <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -2990,43 +2765,43 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -3040,46 +2815,46 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -3093,46 +2868,46 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -3143,7 +2918,7 @@
         <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
@@ -3152,40 +2927,40 @@
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -3196,49 +2971,13 @@
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="E65" t="s">
         <v>28</v>
-      </c>
-      <c r="F65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" t="s">
-        <v>56</v>
-      </c>
-      <c r="K65" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" t="s">
-        <v>56</v>
-      </c>
-      <c r="N65" t="s">
-        <v>56</v>
-      </c>
-      <c r="O65" t="s">
-        <v>56</v>
-      </c>
-      <c r="P65" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -3249,49 +2988,49 @@
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -3302,49 +3041,49 @@
         <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -3361,43 +3100,43 @@
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -3417,10 +3156,10 @@
         <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -3434,16 +3173,16 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -3457,10 +3196,16 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -3471,19 +3216,19 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -3494,19 +3239,13 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
-      </c>
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
@@ -3517,19 +3256,19 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
@@ -3540,19 +3279,19 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
@@ -3572,10 +3311,10 @@
         <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
@@ -3592,25 +3331,25 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" t="s">
         <v>70</v>
       </c>
-      <c r="G77" t="s">
-        <v>71</v>
-      </c>
-      <c r="H77" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" t="s">
-        <v>72</v>
-      </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
@@ -3624,28 +3363,28 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J78" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K78" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
@@ -3659,28 +3398,28 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" t="s">
         <v>70</v>
       </c>
-      <c r="G79" t="s">
-        <v>71</v>
-      </c>
-      <c r="H79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I79" t="s">
-        <v>72</v>
-      </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K79" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
@@ -3691,31 +3430,13 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
-      </c>
-      <c r="F80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s">
-        <v>72</v>
-      </c>
-      <c r="H80" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" t="s">
-        <v>71</v>
-      </c>
-      <c r="J80" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
@@ -3726,31 +3447,31 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
@@ -3761,31 +3482,31 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
@@ -3796,31 +3517,31 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" t="s">
         <v>70</v>
       </c>
-      <c r="G83" t="s">
-        <v>71</v>
-      </c>
-      <c r="H83" t="s">
-        <v>68</v>
-      </c>
-      <c r="I83" t="s">
-        <v>72</v>
-      </c>
       <c r="J83" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
@@ -3840,22 +3561,22 @@
         <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J84" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K84" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
@@ -3872,43 +3593,7 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s">
-        <v>74</v>
-      </c>
-      <c r="G85" t="s">
-        <v>72</v>
-      </c>
-      <c r="H85" t="s">
-        <v>68</v>
-      </c>
-      <c r="I85" t="s">
-        <v>71</v>
-      </c>
-      <c r="J85" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" t="s">
-        <v>76</v>
-      </c>
-      <c r="N85" t="s">
-        <v>68</v>
-      </c>
-      <c r="O85" t="s">
-        <v>73</v>
-      </c>
-      <c r="P85" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
@@ -3922,46 +3607,46 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G86" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" t="s">
         <v>71</v>
       </c>
-      <c r="H86" t="s">
-        <v>73</v>
-      </c>
       <c r="I86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.35">
@@ -3975,46 +3660,46 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
@@ -4025,7 +3710,7 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -4034,40 +3719,40 @@
         <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
@@ -4078,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -4087,40 +3772,40 @@
         <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
@@ -4131,49 +3816,13 @@
         <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s">
-        <v>70</v>
-      </c>
-      <c r="H90" t="s">
-        <v>71</v>
-      </c>
-      <c r="I90" t="s">
-        <v>68</v>
-      </c>
-      <c r="J90" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" t="s">
-        <v>56</v>
-      </c>
-      <c r="L90" t="s">
-        <v>56</v>
-      </c>
-      <c r="M90" t="s">
-        <v>56</v>
-      </c>
-      <c r="N90" t="s">
-        <v>56</v>
-      </c>
-      <c r="O90" t="s">
-        <v>56</v>
-      </c>
-      <c r="P90" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
@@ -4184,49 +3833,49 @@
         <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G91" t="s">
+        <v>69</v>
+      </c>
+      <c r="H91" t="s">
         <v>71</v>
       </c>
-      <c r="H91" t="s">
-        <v>73</v>
-      </c>
       <c r="I91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
@@ -4243,43 +3892,43 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G92" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" t="s">
         <v>71</v>
       </c>
-      <c r="H92" t="s">
-        <v>73</v>
-      </c>
       <c r="I92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.35">
@@ -4299,40 +3948,10 @@
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G93" t="s">
-        <v>68</v>
-      </c>
-      <c r="H93" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" t="s">
-        <v>29</v>
-      </c>
-      <c r="J93" t="s">
-        <v>35</v>
-      </c>
-      <c r="K93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L93" t="s">
-        <v>37</v>
-      </c>
-      <c r="M93" t="s">
-        <v>38</v>
-      </c>
-      <c r="N93" t="s">
-        <v>31</v>
-      </c>
-      <c r="O93" t="s">
-        <v>39</v>
-      </c>
-      <c r="P93" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
@@ -4346,46 +3965,16 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
-      </c>
-      <c r="H94" t="s">
-        <v>31</v>
-      </c>
-      <c r="I94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J94" t="s">
-        <v>33</v>
-      </c>
-      <c r="K94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L94" t="s">
-        <v>35</v>
-      </c>
-      <c r="M94" t="s">
-        <v>36</v>
-      </c>
-      <c r="N94" t="s">
-        <v>37</v>
-      </c>
-      <c r="O94" t="s">
-        <v>38</v>
-      </c>
-      <c r="P94" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
@@ -4399,46 +3988,16 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
         <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
-      </c>
-      <c r="H95" t="s">
-        <v>39</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" t="s">
-        <v>37</v>
-      </c>
-      <c r="L95" t="s">
-        <v>36</v>
-      </c>
-      <c r="M95" t="s">
-        <v>29</v>
-      </c>
-      <c r="N95" t="s">
-        <v>35</v>
-      </c>
-      <c r="O95" t="s">
-        <v>34</v>
-      </c>
-      <c r="P95" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.35">
@@ -4449,49 +4008,19 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>69</v>
-      </c>
-      <c r="H96" t="s">
-        <v>39</v>
-      </c>
-      <c r="I96" t="s">
-        <v>31</v>
-      </c>
-      <c r="J96" t="s">
-        <v>38</v>
-      </c>
-      <c r="K96" t="s">
-        <v>37</v>
-      </c>
-      <c r="L96" t="s">
-        <v>36</v>
-      </c>
-      <c r="M96" t="s">
-        <v>29</v>
-      </c>
-      <c r="N96" t="s">
-        <v>35</v>
-      </c>
-      <c r="O96" t="s">
-        <v>34</v>
-      </c>
-      <c r="P96" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
@@ -4502,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
@@ -4511,10 +4040,10 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.35">
@@ -4525,19 +4054,19 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
@@ -4548,19 +4077,19 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
         <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.35">
@@ -4580,10 +4109,10 @@
         <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.35">
@@ -4600,25 +4129,25 @@
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J101" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K101" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
@@ -4632,28 +4161,28 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
         <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J102" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K102" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
@@ -4667,28 +4196,28 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
@@ -4699,7 +4228,7 @@
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>27</v>
@@ -4708,22 +4237,22 @@
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s">
         <v>79</v>
       </c>
-      <c r="I104" t="s">
-        <v>82</v>
-      </c>
       <c r="J104" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
@@ -4734,31 +4263,31 @@
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I105" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J105" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K105" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
@@ -4769,31 +4298,31 @@
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E106" t="s">
         <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I106" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J106" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K106" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
@@ -4804,31 +4333,13 @@
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s">
-        <v>81</v>
-      </c>
-      <c r="G107" t="s">
-        <v>82</v>
-      </c>
-      <c r="H107" t="s">
-        <v>79</v>
-      </c>
-      <c r="I107" t="s">
-        <v>83</v>
-      </c>
-      <c r="J107" t="s">
-        <v>40</v>
-      </c>
-      <c r="K107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
@@ -4848,22 +4359,22 @@
         <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s">
         <v>79</v>
       </c>
-      <c r="I108" t="s">
-        <v>82</v>
-      </c>
       <c r="J108" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="K108" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.35">
@@ -4880,43 +4391,43 @@
         <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G109" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I109" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="K109" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L109" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M109" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N109" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O109" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P109" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="Q109" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.35">
@@ -4930,46 +4441,46 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E110" t="s">
         <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="K110" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L110" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M110" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N110" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O110" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P110" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q110" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.35">
@@ -4983,46 +4494,46 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H111" t="s">
         <v>79</v>
       </c>
       <c r="I111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J111" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="K111" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L111" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M111" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N111" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O111" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P111" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q111" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.35">
@@ -5033,7 +4544,7 @@
         <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -5042,40 +4553,40 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G112" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H112" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I112" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J112" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="K112" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L112" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M112" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N112" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O112" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P112" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="Q112" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.35">
@@ -5086,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -5095,40 +4606,40 @@
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J113" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L113" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M113" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N113" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O113" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P113" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="Q113" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.35">
@@ -5139,49 +4650,13 @@
         <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s">
-        <v>82</v>
-      </c>
-      <c r="G114" t="s">
-        <v>84</v>
-      </c>
-      <c r="H114" t="s">
-        <v>79</v>
-      </c>
-      <c r="I114" t="s">
-        <v>83</v>
-      </c>
-      <c r="J114" t="s">
-        <v>90</v>
-      </c>
-      <c r="K114" t="s">
-        <v>81</v>
-      </c>
-      <c r="L114" t="s">
-        <v>89</v>
-      </c>
-      <c r="M114" t="s">
-        <v>88</v>
-      </c>
-      <c r="N114" t="s">
-        <v>80</v>
-      </c>
-      <c r="O114" t="s">
-        <v>87</v>
-      </c>
-      <c r="P114" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.35">
@@ -5192,49 +4667,49 @@
         <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I115" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J115" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="K115" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L115" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M115" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N115" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O115" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P115" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q115" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.35">
@@ -5251,43 +4726,43 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I116" t="s">
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="K116" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L116" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M116" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N116" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O116" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P116" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="Q116" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.35">
@@ -5307,40 +4782,10 @@
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I117" t="s">
-        <v>29</v>
-      </c>
-      <c r="J117" t="s">
-        <v>35</v>
-      </c>
-      <c r="K117" t="s">
-        <v>36</v>
-      </c>
-      <c r="L117" t="s">
-        <v>37</v>
-      </c>
-      <c r="M117" t="s">
-        <v>38</v>
-      </c>
-      <c r="N117" t="s">
-        <v>31</v>
-      </c>
-      <c r="O117" t="s">
-        <v>39</v>
-      </c>
-      <c r="P117" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.35">
@@ -5354,10 +4799,16 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.35">
@@ -5371,10 +4822,16 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
         <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.35">
@@ -5385,13 +4842,19 @@
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F120" t="s">
+        <v>76</v>
+      </c>
+      <c r="G120" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.35">
@@ -5402,13 +4865,19 @@
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
       </c>
       <c r="E121" t="s">
         <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>77</v>
+      </c>
+      <c r="G121" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.35">
@@ -5419,13 +4888,13 @@
         <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.35">
@@ -5436,13 +4905,19 @@
         <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
         <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
